--- a/biology/Médecine/Université_de_médecine_de_Białystok/Université_de_médecine_de_Białystok.xlsx
+++ b/biology/Médecine/Université_de_médecine_de_Białystok/Université_de_médecine_de_Białystok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Bia%C5%82ystok</t>
+          <t>Université_de_médecine_de_Białystok</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université de médecine de Białystok (en polonais : Uniwersytet Medyczny w Białymstoku, communément abrégé en UMB) a été créée sous cette forme en 1950 sous le nom d'académie de médecine de Białystok (Akademia Medyczna w Białymstoku).
 Elle porte son nom actuel depuis 2008.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Bia%C5%82ystok</t>
+          <t>Université_de_médecine_de_Białystok</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Facultés et départements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faculté de médecine (Wydział Lekarski z Oddziałem Stomatologii) - possibilité de suivre un cursus en anglais
 Faculté de pharmacie et d'analyse médicale (Wydział Farmaceutyczny z Oddziałem Medycyny Laboratoryjnej)
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Bia%C5%82ystok</t>
+          <t>Université_de_médecine_de_Białystok</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des recteurs
-Recteurs de l'université de médecine de Białystok :
+          <t>Liste des recteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Recteurs de l'université de médecine de Białystok :
 1950-1955 – Tadeusz Kielanowski (pl)
 1955-1959 – Stanisław Legeżyński
 1959–1962 - Jakub Chlebowski
@@ -564,9 +583,43 @@
 1999–2002 - Zbigniew Puchalski
 2002–2008 - Jan Górski
 2008–2016 - Jacek Nikliński (pl)
-depuis 2016  -  Adam Krętowski (pl)
-Docteurs honoris causa
-Parmi les personnalités nommées docteurs honoris causa, on peut relever cinq francophones[1] :
+depuis 2016  -  Adam Krętowski (pl)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_de_médecine_de_Białystok</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_de_m%C3%A9decine_de_Bia%C5%82ystok</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités de l’université</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Docteurs honoris causa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi les personnalités nommées docteurs honoris causa, on peut relever cinq francophones :
 Jean Cohen (1996)</t>
         </is>
       </c>
